--- a/project_root/WBS.xlsx
+++ b/project_root/WBS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919B5AAA-2803-4091-9F47-3D5408D8534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{433733FC-2A78-4D3E-99AF-68AF625B372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>タスク番号</t>
   </si>
@@ -63,27 +63,6 @@
   </si>
   <si>
     <t>開始遅延時間</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>火</t>
   </si>
   <si>
     <t>設計①</t>
@@ -248,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -283,19 +262,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -632,55 +608,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:T9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="8" width="26" customWidth="1"/>
-    <col min="9" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="20" width="3" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="15" customWidth="1"/>
+    <col min="5" max="8" width="26" style="15" customWidth="1"/>
+    <col min="9" max="10" width="13.75" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
-      <c r="K1" s="15">
-        <v>1</v>
-      </c>
-      <c r="L1" s="15">
-        <v>2</v>
-      </c>
-      <c r="M1" s="15">
-        <v>3</v>
-      </c>
-      <c r="N1" s="15">
-        <v>4</v>
-      </c>
-      <c r="O1" s="15">
-        <v>5</v>
-      </c>
-      <c r="P1" s="15">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="15">
-        <v>7</v>
-      </c>
-      <c r="R1" s="15">
-        <v>8</v>
-      </c>
-      <c r="S1" s="15">
-        <v>9</v>
-      </c>
-      <c r="T1" s="15">
-        <v>10</v>
-      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -704,268 +659,234 @@
       <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="18">
-        <v>45631.375</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45631.5</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="18">
-        <v>45631.375</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45631.583333333343</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19">
-        <v>45631.541666666657</v>
-      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="18">
-        <v>45631.583333333343</v>
-      </c>
-      <c r="E5" s="18">
-        <v>45631.708333333343</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="18">
-        <v>45631.708333333343</v>
-      </c>
-      <c r="E6" s="18">
-        <v>45632.416666666657</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="4">
         <v>2</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="18">
-        <v>45632.416666666657</v>
-      </c>
-      <c r="E7" s="18">
-        <v>45632.625</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="4">
         <v>3</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="18">
-        <v>45631.708333333343</v>
-      </c>
-      <c r="E8" s="18">
-        <v>45632.416666666657</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18">
-        <v>45632.458333333343</v>
-      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="K10" s="20"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="K11" s="20"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,106 +903,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="16" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18">
         <v>45292.375</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>45292.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="18">
         <v>45292.375</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>45292.541666666657</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18">
         <v>45292.541666666657</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>45292.666666666657</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18">
         <v>45292.666666666657</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>45293.416666666657</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="18">
         <v>45293.416666666657</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>45293.583333333343</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18">
         <v>45292.666666666657</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>45293.416666666657</v>
       </c>
     </row>
@@ -1099,100 +1020,100 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18">
         <v>45292.375</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>45292.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="18">
         <v>45292.375</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>45292.541666666657</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18">
         <v>45292.541666666657</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>45292.666666666657</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18">
         <v>45292.666666666657</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>45293.416666666657</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="18">
         <v>45293.416666666657</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>45293.583333333343</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18">
         <v>45292.666666666657</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>45293.416666666657</v>
       </c>
     </row>
